--- a/biology/Zoologie/Botruanthus_benedeni/Botruanthus_benedeni.xlsx
+++ b/biology/Zoologie/Botruanthus_benedeni/Botruanthus_benedeni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Botruanthus benedeni est une espèce de cnidaires de la famille des Botrucnidiferidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Botruanthus benedeni est une espèce de cnidaires de la famille des Botrucnidiferidae.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Botruanthus benedeni (Torrey &amp; Kleeberger, 1909)[1].
-L'espèce a été initialement classée dans le genre Cerianthus sous le protonyme Cerianthus benedeni Torrey &amp; Kleeberger, 1909[1],[2].
-Botruanthus benedeni a pour synonyme[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Botruanthus benedeni (Torrey &amp; Kleeberger, 1909).
+L'espèce a été initialement classée dans le genre Cerianthus sous le protonyme Cerianthus benedeni Torrey &amp; Kleeberger, 1909,.
+Botruanthus benedeni a pour synonyme :
 Cerianthus benedeni Torrey &amp; Kleeberger, 1909</t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, benedeni, lui a été donnée en l'honneur de Édouard Van Beneden (1846-1910), biologiste marin, embryologiste et zoologiste belge[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, benedeni, lui a été donnée en l'honneur de Édouard Van Beneden (1846-1910), biologiste marin, embryologiste et zoologiste belge.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) H. B. Torrey et F. L. Kleeberger, « Three species of Cerianthus from southern California », University of California Publications in Zoology, vol. 6, no 5,‎ 4 décembre 1909, p. 115-125 (ISSN 0068-6506 et 1559-3215, lire en ligne)</t>
         </is>
